--- a/docs/StructureDefinition-MeasureGroupAttributes.xlsx
+++ b/docs/StructureDefinition-MeasureGroupAttributes.xlsx
@@ -308,7 +308,7 @@
     <t>Like Measure.subject, but applies to group</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/us/saner/StructureDefinition/MeasureDescription}
+    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/us/saner/StructureDefinition/MeasuredItemDescription}
 </t>
   </si>
   <si>
